--- a/correlation/renault/minutely/correlation/renault_correlation_price_with_semantics.xlsx
+++ b/correlation/renault/minutely/correlation/renault_correlation_price_with_semantics.xlsx
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.001303863316587715</v>
+        <v>-0.00416792835644097</v>
       </c>
       <c r="D2">
-        <v>-0.0007654778986978681</v>
+        <v>-0.0002250760803327832</v>
       </c>
       <c r="E2">
-        <v>-0.001963830329125108</v>
+        <v>0.0001024841869184277</v>
       </c>
       <c r="F2">
-        <v>0.000394285140939151</v>
+        <v>0.002640024180695498</v>
       </c>
       <c r="G2">
-        <v>-0.0002432169930391258</v>
+        <v>-0.001297856835870024</v>
       </c>
       <c r="H2">
-        <v>0.003629425919048887</v>
+        <v>0.004217860403827782</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.001303863316587715</v>
+        <v>-0.00416792835644097</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5527264431724228</v>
+        <v>0.6395921826799285</v>
       </c>
       <c r="E3">
-        <v>0.5393650427840087</v>
+        <v>0.3010108008882534</v>
       </c>
       <c r="F3">
-        <v>0.2532131718885824</v>
+        <v>0.2743435411877621</v>
       </c>
       <c r="G3">
-        <v>0.4653613265271995</v>
+        <v>0.1572456371652774</v>
       </c>
       <c r="H3">
-        <v>-0.09037819301050951</v>
+        <v>-0.002121705278588553</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.0007654778986978681</v>
+        <v>-0.0002250760803327832</v>
       </c>
       <c r="C4">
-        <v>0.5527264431724228</v>
+        <v>0.6395921826799285</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2655709144619005</v>
+        <v>0.2382718834351819</v>
       </c>
       <c r="F4">
-        <v>0.5914260853936152</v>
+        <v>0.51538496946124</v>
       </c>
       <c r="G4">
-        <v>0.4209550043775075</v>
+        <v>0.1731924314315124</v>
       </c>
       <c r="H4">
-        <v>-0.2053134024684354</v>
+        <v>-0.07958324040891554</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.001963830329125108</v>
+        <v>0.0001024841869184277</v>
       </c>
       <c r="C5">
-        <v>0.5393650427840087</v>
+        <v>0.3010108008882534</v>
       </c>
       <c r="D5">
-        <v>0.2655709144619005</v>
+        <v>0.2382718834351819</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6156380628268282</v>
+        <v>0.4581392394996846</v>
       </c>
       <c r="G5">
-        <v>0.5076165370927964</v>
+        <v>0.3317166570471344</v>
       </c>
       <c r="H5">
-        <v>-0.2889593334860788</v>
+        <v>-0.1258398685072956</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.000394285140939151</v>
+        <v>0.002640024180695498</v>
       </c>
       <c r="C6">
-        <v>0.2532131718885824</v>
+        <v>0.2743435411877621</v>
       </c>
       <c r="D6">
-        <v>0.5914260853936152</v>
+        <v>0.51538496946124</v>
       </c>
       <c r="E6">
-        <v>0.6156380628268282</v>
+        <v>0.4581392394996846</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.513003624210925</v>
+        <v>0.2439410917672042</v>
       </c>
       <c r="H6">
-        <v>-0.0459804466467446</v>
+        <v>0.3038206904375456</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.0002432169930391258</v>
+        <v>-0.001297856835870024</v>
       </c>
       <c r="C7">
-        <v>0.4653613265271995</v>
+        <v>0.1572456371652774</v>
       </c>
       <c r="D7">
-        <v>0.4209550043775075</v>
+        <v>0.1731924314315124</v>
       </c>
       <c r="E7">
-        <v>0.5076165370927964</v>
+        <v>0.3317166570471344</v>
       </c>
       <c r="F7">
-        <v>0.513003624210925</v>
+        <v>0.2439410917672042</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-0.04223647348689373</v>
+        <v>0.05385087775464264</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,22 +582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.003629425919048887</v>
+        <v>0.004217860403827782</v>
       </c>
       <c r="C8">
-        <v>-0.09037819301050951</v>
+        <v>-0.002121705278588553</v>
       </c>
       <c r="D8">
-        <v>-0.2053134024684354</v>
+        <v>-0.07958324040891554</v>
       </c>
       <c r="E8">
-        <v>-0.2889593334860788</v>
+        <v>-0.1258398685072956</v>
       </c>
       <c r="F8">
-        <v>-0.0459804466467446</v>
+        <v>0.3038206904375456</v>
       </c>
       <c r="G8">
-        <v>-0.04223647348689373</v>
+        <v>0.05385087775464264</v>
       </c>
       <c r="H8">
         <v>1</v>
